--- a/working/etterson/seedwt.B.xlsx
+++ b/working/etterson/seedwt.B.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorjaelliott/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorjaelliott/Desktop/Repositories/LCAdata/working/etterson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4893A835-0022-704F-9E38-1E43F9A889B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEAC9EEA-DC4F-314A-AD7E-3DDA7C8CEBA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6380" yWindow="3300" windowWidth="26840" windowHeight="15940" xr2:uid="{332AC5CF-C0F3-0646-AF40-8B02C87F734D}"/>
+    <workbookView xWindow="1960" yWindow="860" windowWidth="26840" windowHeight="15940" xr2:uid="{332AC5CF-C0F3-0646-AF40-8B02C87F734D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>cross</t>
   </si>
@@ -62,13 +62,19 @@
     <t>P1</t>
   </si>
   <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
     <t>P2</t>
+  </si>
+  <si>
+    <t>F1a</t>
+  </si>
+  <si>
+    <t>F1b</t>
+  </si>
+  <si>
+    <t>F2a</t>
+  </si>
+  <si>
+    <t>F2b</t>
   </si>
 </sst>
 </file>
@@ -423,7 +429,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -464,7 +470,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0.48499999999999999</v>
@@ -475,7 +481,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>0.50249999999999995</v>
@@ -486,7 +492,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0.505</v>
@@ -497,7 +503,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>0.51500000000000001</v>
@@ -508,7 +514,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>0.505</v>

--- a/working/etterson/seedwt.B.xlsx
+++ b/working/etterson/seedwt.B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11009"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorjaelliott/Desktop/Repositories/LCAdata/working/etterson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEAC9EEA-DC4F-314A-AD7E-3DDA7C8CEBA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9817570-188A-4246-86E9-B6A604B5100F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1960" yWindow="860" windowWidth="26840" windowHeight="15940" xr2:uid="{332AC5CF-C0F3-0646-AF40-8B02C87F734D}"/>
+    <workbookView xWindow="1960" yWindow="500" windowWidth="26840" windowHeight="15880" xr2:uid="{332AC5CF-C0F3-0646-AF40-8B02C87F734D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -429,7 +429,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -467,6 +467,9 @@
       <c r="C2">
         <v>1.1627906976744188E-2</v>
       </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -478,6 +481,9 @@
       <c r="C3">
         <v>1.1046511627906978E-2</v>
       </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -489,6 +495,9 @@
       <c r="C4">
         <v>1.1046511627906978E-2</v>
       </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -500,6 +509,9 @@
       <c r="C5">
         <v>8.7209302325581394E-3</v>
       </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -511,6 +523,9 @@
       <c r="C6">
         <v>9.8837209302325597E-3</v>
       </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -521,6 +536,9 @@
       </c>
       <c r="C7">
         <v>1.1046511627906978E-2</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
